--- a/COVID-19 Data Analysis/1/Data/vaccination-data-WHO-12-28-2022-NO-DETAILS for-vaciinetype-date.xlsx
+++ b/COVID-19 Data Analysis/1/Data/vaccination-data-WHO-12-28-2022-NO-DETAILS for-vaciinetype-date.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2023- CCNY Teaching\CSC-47400 Visualization\COVID Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CCNY\Spring 2023\CSc 47400\informative-graphics\COVID-19 Data Analysis\1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CFAF5AB-B06D-4A2D-B157-D1B8A84C72EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBDD69D-CE22-40BA-A5C3-C322CDADB6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="12564" windowHeight="10992"/>
+    <workbookView xWindow="5325" yWindow="1395" windowWidth="23535" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vaccination-data-WHO-12-28-2022" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="607">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -202,9 +202,6 @@
     <t>AUT</t>
   </si>
   <si>
-    <t>AstraZeneca - Vaxzevria,Janssen - Ad26.COV 2-S,Moderna - Spikevax,Moderna â€“ Spikevax Bivalent Original/Omicron BA.1,Novavax-NUVAXOVID,Pfizer BioNTech - Comirnaty,Pfizer BioNTech - Comirnaty Bivalent Original/Omicron BA.1,Pfizer BioNTech - Comirnaty Bivalent Original/Omicron BA.4/BA.5,Unknown Vaccine,Valneva - VLA2001</t>
-  </si>
-  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
@@ -640,9 +637,6 @@
     <t>EST</t>
   </si>
   <si>
-    <t>AstraZeneca - Vaxzevria,Janssen - Ad26.COV 2-S,Moderna - Spikevax,Moderna â€“ Spikevax Bivalent Original/Omicron BA.1,Novavax-NUVAXOVID,Pfizer BioNTech - Comirnaty,Pfizer BioNTech - Comirnaty Bivalent Original/Omicron BA.1,Pfizer BioNTech - Comirnaty Bivalent Original/Omicron BA.4/BA.5</t>
-  </si>
-  <si>
     <t>Eswatini</t>
   </si>
   <si>
@@ -745,9 +739,6 @@
     <t>DEU</t>
   </si>
   <si>
-    <t>AstraZeneca - Vaxzevria,Janssen - Ad26.COV 2-S,Moderna - Spikevax,Moderna â€“ Spikevax Bivalent Original/Omicron  - Generic,Novavax-NUVAXOVID,Pfizer BioNTech - Comirnaty,Pfizer BioNTech - Comirnaty Bivalent Original/Omicron - Generic,Unknown Vaccine,Valneva - VLA2001</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
@@ -1375,9 +1366,6 @@
     <t>PRT</t>
   </si>
   <si>
-    <t>AstraZeneca - Vaxzevria,Beijing CNBG - BBIBP-CorV,Bharat - Covaxin,Janssen - Ad26.COV 2-S,Moderna - Spikevax,Moderna â€“ Spikevax Bivalent Original/Omicron BA.1,Novavax-NUVAXOVID,Pfizer BioNTech - Comirnaty,Pfizer BioNTech - Comirnaty Bivalent Original/Omicron BA.1,Pfizer BioNTech - Comirnaty Bivalent Original/Omicron BA.4/BA.5,Sinovac - CoronaVac</t>
-  </si>
-  <si>
     <t>Puerto Rico</t>
   </si>
   <si>
@@ -1624,9 +1612,6 @@
     <t>CHE</t>
   </si>
   <si>
-    <t>Janssen - Ad26.COV 2-S,Moderna - Spikevax,Moderna â€“ Spikevax Bivalent Original/Omicron BA.1,Novavax-NUVAXOVID,Pfizer BioNTech - Comirnaty,Pfizer BioNTech - Comirnaty Bivalent Original/Omicron BA.1</t>
-  </si>
-  <si>
     <t>Syrian Arab Republic</t>
   </si>
   <si>
@@ -1838,12 +1823,30 @@
   </si>
   <si>
     <t>Beijing CNBG - BBIBP-CorV,Bharat - Covaxin,Gamaleya - Gam-Covid-Vac,Sinovac - CoronaVac</t>
+  </si>
+  <si>
+    <t>AstraZeneca - Vaxzevria,Beijing CNBG - BBIBP-CorV,Bharat - Covaxin,Janssen - Ad26.COV 2-S,Moderna - Spikevax,Bivalent Original/Omicron BA.1,Novavax-NUVAXOVID,Pfizer BioNTech - Comirnaty,Pfizer BioNTech - Comirnaty Bivalent Original/Omicron BA.1,Pfizer BioNTech - Comirnaty Bivalent Original/Omicron BA.4/BA.5,Sinovac - CoronaVac</t>
+  </si>
+  <si>
+    <t>Janssen - Ad26.COV 2-S,Moderna - Spikevax,Bivalent Original/Omicron BA.1,Novavax-NUVAXOVID,Pfizer BioNTech - Comirnaty,Pfizer BioNTech - Comirnaty Bivalent Original/Omicron BA.1</t>
+  </si>
+  <si>
+    <t>AstraZeneca - Vaxzevria,Janssen - Ad26.COV 2-S,Moderna - Spikevax,Bivalent Original/Omicron BA.1,Novavax-NUVAXOVID,Pfizer BioNTech - Comirnaty,Pfizer BioNTech - Comirnaty Bivalent Original/Omicron BA.1,Pfizer BioNTech - Comirnaty Bivalent Original/Omicron BA.4/BA.5,Unknown Vaccine,Valneva - VLA2001</t>
+  </si>
+  <si>
+    <t>AstraZeneca - Vaxzevria,Janssen - Ad26.COV 2-S,Moderna - Spikevax,Bivalent Original/Omicron BA.1,Novavax-NUVAXOVID,Pfizer BioNTech - Comirnaty,Pfizer BioNTech - Comirnaty Bivalent Original/Omicron BA.1,Pfizer BioNTech - Comirnaty Bivalent Original/Omicron BA.4/BA.5</t>
+  </si>
+  <si>
+    <t>Unknown Vaccine</t>
+  </si>
+  <si>
+    <t>AstraZeneca - Vaxzevria,Janssen - Ad26.COV 2-S,Moderna - Spikevax,Bivalent Original/Omicron  - Generic,Novavax-NUVAXOVID,Pfizer BioNTech - Comirnaty,Pfizer BioNTech - Comirnaty Bivalent Original/Omicron - Generic,Unknown Vaccine,Valneva - VLA2001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2678,14 +2681,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J166" workbookViewId="0">
+      <selection activeCell="M175" sqref="M175"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" customWidth="1"/>
+    <col min="10" max="10" width="61.7109375" customWidth="1"/>
+    <col min="12" max="12" width="102.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2735,7 +2752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2779,7 +2796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2829,7 +2846,7 @@
         <v>13.249000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2879,7 +2896,7 @@
         <v>1.3129999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2929,7 +2946,7 @@
         <v>43.77</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -2979,7 +2996,7 @@
         <v>56.423000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -3029,7 +3046,7 @@
         <v>4.4329999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -3079,7 +3096,7 @@
         <v>19.984000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -3129,7 +3146,7 @@
         <v>10.045999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3179,7 +3196,7 @@
         <v>68.17</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3229,7 +3246,7 @@
         <v>1.3740000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -3273,7 +3290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -3323,7 +3340,7 @@
         <v>56.058999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -3358,7 +3375,7 @@
         <v>75.022000000000006</v>
       </c>
       <c r="L14" t="s">
-        <v>60</v>
+        <v>603</v>
       </c>
       <c r="M14" s="1">
         <v>44195</v>
@@ -3373,12 +3390,12 @@
         <v>60.593000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
         <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -3408,7 +3425,7 @@
         <v>48.115000000000002</v>
       </c>
       <c r="L15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M15" s="1">
         <v>44216</v>
@@ -3423,12 +3440,12 @@
         <v>34.43</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
         <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -3458,7 +3475,7 @@
         <v>42.12</v>
       </c>
       <c r="L16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M16" s="1">
         <v>44269</v>
@@ -3473,12 +3490,12 @@
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
         <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -3523,15 +3540,15 @@
         <v>59.277999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -3558,7 +3575,7 @@
         <v>76.899000000000001</v>
       </c>
       <c r="L18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M18" s="1">
         <v>44223</v>
@@ -3573,12 +3590,12 @@
         <v>39.320999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>74</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -3608,7 +3625,7 @@
         <v>53.933</v>
       </c>
       <c r="L19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M19" s="1">
         <v>44204</v>
@@ -3623,12 +3640,12 @@
         <v>21.634</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
         <v>76</v>
-      </c>
-      <c r="B20" t="s">
-        <v>77</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -3658,7 +3675,7 @@
         <v>67.763000000000005</v>
       </c>
       <c r="L20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M20" s="1">
         <v>44230</v>
@@ -3673,12 +3690,12 @@
         <v>48.816000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
         <v>79</v>
-      </c>
-      <c r="B21" t="s">
-        <v>80</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -3708,7 +3725,7 @@
         <v>79.465999999999994</v>
       </c>
       <c r="L21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M21" s="1">
         <v>44195</v>
@@ -3723,12 +3740,12 @@
         <v>62.826000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
         <v>82</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -3758,7 +3775,7 @@
         <v>55.642000000000003</v>
       </c>
       <c r="L22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M22" s="1">
         <v>44256</v>
@@ -3773,12 +3790,12 @@
         <v>12.834</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
         <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -3808,7 +3825,7 @@
         <v>22.625</v>
       </c>
       <c r="L23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M23" s="1">
         <v>44284</v>
@@ -3817,12 +3834,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
         <v>87</v>
-      </c>
-      <c r="B24" t="s">
-        <v>88</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
@@ -3867,15 +3884,15 @@
         <v>51.112000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
         <v>89</v>
       </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
@@ -3902,7 +3919,7 @@
         <v>87.825999999999993</v>
       </c>
       <c r="L25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M25" s="1">
         <v>44282</v>
@@ -3917,12 +3934,12 @@
         <v>82.248999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
         <v>92</v>
-      </c>
-      <c r="B26" t="s">
-        <v>93</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -3952,7 +3969,7 @@
         <v>53.49</v>
       </c>
       <c r="L26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M26" s="1">
         <v>44226</v>
@@ -3967,12 +3984,12 @@
         <v>20.172000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
         <v>95</v>
-      </c>
-      <c r="B27" t="s">
-        <v>96</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
@@ -4001,6 +4018,9 @@
       <c r="K27">
         <v>76.113</v>
       </c>
+      <c r="L27" t="s">
+        <v>605</v>
+      </c>
       <c r="O27">
         <v>8158</v>
       </c>
@@ -4008,18 +4028,18 @@
         <v>39.005000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
         <v>97</v>
-      </c>
-      <c r="B28" t="s">
-        <v>98</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" s="1">
         <v>44440</v>
@@ -4043,18 +4063,18 @@
         <v>64.400999999999996</v>
       </c>
       <c r="L28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
         <v>101</v>
-      </c>
-      <c r="B29" t="s">
-        <v>102</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -4084,18 +4104,18 @@
         <v>25.789000000000001</v>
       </c>
       <c r="L29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
         <v>104</v>
-      </c>
-      <c r="B30" t="s">
-        <v>105</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -4125,7 +4145,7 @@
         <v>60.640999999999998</v>
       </c>
       <c r="L30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M30" s="1">
         <v>44281</v>
@@ -4140,12 +4160,12 @@
         <v>21.236999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
         <v>107</v>
-      </c>
-      <c r="B31" t="s">
-        <v>108</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
@@ -4175,7 +4195,7 @@
         <v>79.358999999999995</v>
       </c>
       <c r="L31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M31" s="1">
         <v>44213</v>
@@ -4190,12 +4210,12 @@
         <v>50.326999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
         <v>109</v>
-      </c>
-      <c r="B32" t="s">
-        <v>110</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
@@ -4225,7 +4245,7 @@
         <v>60.393000000000001</v>
       </c>
       <c r="L32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M32" s="1">
         <v>44238</v>
@@ -4240,12 +4260,12 @@
         <v>12.323</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" t="s">
         <v>112</v>
-      </c>
-      <c r="B33" t="s">
-        <v>113</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
@@ -4275,7 +4295,7 @@
         <v>101.932</v>
       </c>
       <c r="L33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M33" s="1">
         <v>44289</v>
@@ -4290,12 +4310,12 @@
         <v>77.486000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
         <v>115</v>
-      </c>
-      <c r="B34" t="s">
-        <v>116</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -4325,7 +4345,7 @@
         <v>29.87</v>
       </c>
       <c r="L34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M34" s="1">
         <v>44195</v>
@@ -4340,12 +4360,12 @@
         <v>11.853</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" t="s">
         <v>117</v>
-      </c>
-      <c r="B35" t="s">
-        <v>118</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -4375,7 +4395,7 @@
         <v>15.958</v>
       </c>
       <c r="L35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M35" s="1">
         <v>44349</v>
@@ -4384,12 +4404,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
         <v>120</v>
-      </c>
-      <c r="B36" t="s">
-        <v>121</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -4419,7 +4439,7 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="L36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M36" s="1">
         <v>44487</v>
@@ -4434,12 +4454,12 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
         <v>123</v>
-      </c>
-      <c r="B37" t="s">
-        <v>124</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -4469,7 +4489,7 @@
         <v>55.526000000000003</v>
       </c>
       <c r="L37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M37" s="1">
         <v>44273</v>
@@ -4484,12 +4504,12 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" t="s">
         <v>126</v>
-      </c>
-      <c r="B38" t="s">
-        <v>127</v>
       </c>
       <c r="C38" t="s">
         <v>31</v>
@@ -4519,7 +4539,7 @@
         <v>87.331999999999994</v>
       </c>
       <c r="L38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M38" s="1">
         <v>44237</v>
@@ -4534,12 +4554,12 @@
         <v>62.21</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
         <v>129</v>
-      </c>
-      <c r="B39" t="s">
-        <v>130</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -4569,7 +4589,7 @@
         <v>11.717000000000001</v>
       </c>
       <c r="L39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M39" s="1">
         <v>44298</v>
@@ -4584,12 +4604,12 @@
         <v>1.702</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
         <v>132</v>
-      </c>
-      <c r="B40" t="s">
-        <v>133</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
@@ -4619,7 +4639,7 @@
         <v>82.777000000000001</v>
       </c>
       <c r="L40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M40" s="1">
         <v>44179</v>
@@ -4634,12 +4654,12 @@
         <v>51.923000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s">
         <v>135</v>
-      </c>
-      <c r="B41" t="s">
-        <v>136</v>
       </c>
       <c r="C41" t="s">
         <v>41</v>
@@ -4669,7 +4689,7 @@
         <v>92.117000000000004</v>
       </c>
       <c r="L41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M41" s="1">
         <v>44211</v>
@@ -4684,12 +4704,12 @@
         <v>36.616</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" t="s">
         <v>138</v>
-      </c>
-      <c r="B42" t="s">
-        <v>139</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -4719,7 +4739,7 @@
         <v>40.055</v>
       </c>
       <c r="L42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M42" s="1">
         <v>44274</v>
@@ -4734,12 +4754,12 @@
         <v>4.4329999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" t="s">
         <v>141</v>
-      </c>
-      <c r="B43" t="s">
-        <v>142</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -4769,7 +4789,7 @@
         <v>22.068999999999999</v>
       </c>
       <c r="L43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M43" s="1">
         <v>44351</v>
@@ -4778,12 +4798,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" t="s">
         <v>143</v>
-      </c>
-      <c r="B44" t="s">
-        <v>144</v>
       </c>
       <c r="C44" t="s">
         <v>41</v>
@@ -4813,7 +4833,7 @@
         <v>92.561000000000007</v>
       </c>
       <c r="L44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M44" s="1">
         <v>44186</v>
@@ -4828,12 +4848,12 @@
         <v>82.161000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" t="s">
         <v>146</v>
-      </c>
-      <c r="B45" t="s">
-        <v>147</v>
       </c>
       <c r="C45" t="s">
         <v>31</v>
@@ -4863,7 +4883,7 @@
         <v>86.819000000000003</v>
       </c>
       <c r="L45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M45" s="1">
         <v>44034</v>
@@ -4878,12 +4898,12 @@
         <v>54.704000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" t="s">
         <v>149</v>
-      </c>
-      <c r="B46" t="s">
-        <v>150</v>
       </c>
       <c r="C46" t="s">
         <v>41</v>
@@ -4913,7 +4933,7 @@
         <v>72.478999999999999</v>
       </c>
       <c r="L46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M46" s="1">
         <v>44244</v>
@@ -4928,12 +4948,12 @@
         <v>28.539000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
         <v>152</v>
-      </c>
-      <c r="B47" t="s">
-        <v>153</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4963,7 +4983,7 @@
         <v>45.661999999999999</v>
       </c>
       <c r="L47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M47" s="1">
         <v>44296</v>
@@ -4972,12 +4992,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" t="s">
         <v>155</v>
-      </c>
-      <c r="B48" t="s">
-        <v>156</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -5007,7 +5027,7 @@
         <v>11.853999999999999</v>
       </c>
       <c r="L48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M48" s="1">
         <v>44278</v>
@@ -5016,12 +5036,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" t="s">
         <v>158</v>
-      </c>
-      <c r="B49" t="s">
-        <v>159</v>
       </c>
       <c r="C49" t="s">
         <v>31</v>
@@ -5051,7 +5071,7 @@
         <v>83.557000000000002</v>
       </c>
       <c r="L49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M49" s="1">
         <v>44333</v>
@@ -5066,12 +5086,12 @@
         <v>56.456000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" t="s">
         <v>160</v>
-      </c>
-      <c r="B50" t="s">
-        <v>161</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
@@ -5116,12 +5136,12 @@
         <v>54.462000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" t="s">
         <v>162</v>
-      </c>
-      <c r="B51" t="s">
-        <v>163</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -5151,7 +5171,7 @@
         <v>44.204000000000001</v>
       </c>
       <c r="L51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M51" s="1">
         <v>44256</v>
@@ -5166,12 +5186,12 @@
         <v>7.702</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" t="s">
         <v>165</v>
-      </c>
-      <c r="B52" t="s">
-        <v>166</v>
       </c>
       <c r="C52" t="s">
         <v>23</v>
@@ -5201,7 +5221,7 @@
         <v>55.3</v>
       </c>
       <c r="L52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M52" s="1">
         <v>44188</v>
@@ -5216,12 +5236,12 @@
         <v>23.53</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" t="s">
         <v>168</v>
-      </c>
-      <c r="B53" t="s">
-        <v>169</v>
       </c>
       <c r="C53" t="s">
         <v>41</v>
@@ -5251,7 +5271,7 @@
         <v>88.311000000000007</v>
       </c>
       <c r="L53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N53">
         <v>3</v>
@@ -5263,12 +5283,12 @@
         <v>76.506</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" t="s">
         <v>171</v>
-      </c>
-      <c r="B54" t="s">
-        <v>172</v>
       </c>
       <c r="C54" t="s">
         <v>41</v>
@@ -5313,12 +5333,12 @@
         <v>28.931000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" t="s">
         <v>173</v>
-      </c>
-      <c r="B55" t="s">
-        <v>174</v>
       </c>
       <c r="C55" t="s">
         <v>23</v>
@@ -5363,12 +5383,12 @@
         <v>54.765000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" t="s">
         <v>175</v>
-      </c>
-      <c r="B56" t="s">
-        <v>176</v>
       </c>
       <c r="C56" t="s">
         <v>23</v>
@@ -5398,7 +5418,7 @@
         <v>64.384</v>
       </c>
       <c r="L56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M56" s="1">
         <v>44188</v>
@@ -5413,12 +5433,12 @@
         <v>40.746000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" t="s">
         <v>178</v>
-      </c>
-      <c r="B57" t="s">
-        <v>179</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -5457,12 +5477,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
         <v>180</v>
-      </c>
-      <c r="B58" t="s">
-        <v>181</v>
       </c>
       <c r="C58" t="s">
         <v>23</v>
@@ -5492,7 +5512,7 @@
         <v>82.352999999999994</v>
       </c>
       <c r="L58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M58" s="1">
         <v>44181</v>
@@ -5507,12 +5527,12 @@
         <v>63.113</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" t="s">
         <v>183</v>
-      </c>
-      <c r="B59" t="s">
-        <v>184</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
@@ -5551,12 +5571,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" t="s">
         <v>185</v>
-      </c>
-      <c r="B60" t="s">
-        <v>186</v>
       </c>
       <c r="C60" t="s">
         <v>41</v>
@@ -5586,7 +5606,7 @@
         <v>42.587000000000003</v>
       </c>
       <c r="L60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M60" s="1">
         <v>44239</v>
@@ -5601,12 +5621,12 @@
         <v>5.5469999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" t="s">
         <v>187</v>
-      </c>
-      <c r="B61" t="s">
-        <v>188</v>
       </c>
       <c r="C61" t="s">
         <v>41</v>
@@ -5636,7 +5656,7 @@
         <v>55.863999999999997</v>
       </c>
       <c r="L61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M61" s="1">
         <v>44243</v>
@@ -5651,12 +5671,12 @@
         <v>23.123999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" t="s">
         <v>190</v>
-      </c>
-      <c r="B62" t="s">
-        <v>191</v>
       </c>
       <c r="C62" t="s">
         <v>41</v>
@@ -5686,7 +5706,7 @@
         <v>80.546999999999997</v>
       </c>
       <c r="L62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M62" s="1">
         <v>44216</v>
@@ -5701,12 +5721,12 @@
         <v>43.209000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" t="s">
         <v>193</v>
-      </c>
-      <c r="B63" t="s">
-        <v>194</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
@@ -5736,7 +5756,7 @@
         <v>39.177999999999997</v>
       </c>
       <c r="L63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M63" s="1">
         <v>44220</v>
@@ -5751,12 +5771,12 @@
         <v>9.69</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" t="s">
         <v>196</v>
-      </c>
-      <c r="B64" t="s">
-        <v>197</v>
       </c>
       <c r="C64" t="s">
         <v>41</v>
@@ -5786,7 +5806,7 @@
         <v>67.546000000000006</v>
       </c>
       <c r="L64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M64" s="1">
         <v>44244</v>
@@ -5801,12 +5821,12 @@
         <v>28.843</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" t="s">
         <v>199</v>
-      </c>
-      <c r="B65" t="s">
-        <v>200</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -5836,7 +5856,7 @@
         <v>15.255000000000001</v>
       </c>
       <c r="L65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M65" s="1">
         <v>44239</v>
@@ -5851,12 +5871,12 @@
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" t="s">
         <v>202</v>
-      </c>
-      <c r="B66" t="s">
-        <v>203</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
@@ -5879,13 +5899,16 @@
       <c r="K66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L66" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" t="s">
         <v>204</v>
-      </c>
-      <c r="B67" t="s">
-        <v>205</v>
       </c>
       <c r="C67" t="s">
         <v>23</v>
@@ -5915,7 +5938,7 @@
         <v>62.856999999999999</v>
       </c>
       <c r="L67" t="s">
-        <v>206</v>
+        <v>604</v>
       </c>
       <c r="M67" s="1">
         <v>44188</v>
@@ -5930,12 +5953,12 @@
         <v>36.503999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B68" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
@@ -5965,7 +5988,7 @@
         <v>42.292999999999999</v>
       </c>
       <c r="L68" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M68" s="1">
         <v>44274</v>
@@ -5980,12 +6003,12 @@
         <v>12.715</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B69" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -6015,7 +6038,7 @@
         <v>31.93</v>
       </c>
       <c r="L69" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M69" s="1">
         <v>44268</v>
@@ -6030,12 +6053,12 @@
         <v>2.1070000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C70" t="s">
         <v>41</v>
@@ -6065,7 +6088,7 @@
         <v>85.444000000000003</v>
       </c>
       <c r="L70" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -6077,18 +6100,18 @@
         <v>73.012</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s">
         <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E71" s="1">
         <v>44610</v>
@@ -6112,7 +6135,7 @@
         <v>83.69</v>
       </c>
       <c r="L71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N71">
         <v>2</v>
@@ -6124,12 +6147,12 @@
         <v>43.557000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C72" t="s">
         <v>31</v>
@@ -6159,7 +6182,7 @@
         <v>71.328999999999994</v>
       </c>
       <c r="L72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M72" s="1">
         <v>44262</v>
@@ -6174,12 +6197,12 @@
         <v>18.777000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B73" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C73" t="s">
         <v>23</v>
@@ -6209,7 +6232,7 @@
         <v>78.915999999999997</v>
       </c>
       <c r="L73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M73" s="1">
         <v>44188</v>
@@ -6224,12 +6247,12 @@
         <v>55.265000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B74" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C74" t="s">
         <v>23</v>
@@ -6259,7 +6282,7 @@
         <v>78.900000000000006</v>
       </c>
       <c r="L74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M74" s="1">
         <v>44195</v>
@@ -6274,12 +6297,12 @@
         <v>60.689</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B75" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C75" t="s">
         <v>41</v>
@@ -6309,7 +6332,7 @@
         <v>30.106999999999999</v>
       </c>
       <c r="L75" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M75" s="1">
         <v>44209</v>
@@ -6324,12 +6347,12 @@
         <v>15.324999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B76" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C76" t="s">
         <v>31</v>
@@ -6374,12 +6397,12 @@
         <v>39.954999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B77" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -6409,7 +6432,7 @@
         <v>11.564</v>
       </c>
       <c r="L77" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M77" s="1">
         <v>44278</v>
@@ -6424,12 +6447,12 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B78" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
@@ -6459,7 +6482,7 @@
         <v>18.812000000000001</v>
       </c>
       <c r="L78" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M78" s="1">
         <v>44265</v>
@@ -6474,12 +6497,12 @@
         <v>1.296</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B79" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C79" t="s">
         <v>23</v>
@@ -6509,7 +6532,7 @@
         <v>29.638000000000002</v>
       </c>
       <c r="L79" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M79" s="1">
         <v>44272</v>
@@ -6524,12 +6547,12 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B80" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C80" t="s">
         <v>23</v>
@@ -6559,7 +6582,7 @@
         <v>76.37</v>
       </c>
       <c r="L80" t="s">
-        <v>241</v>
+        <v>606</v>
       </c>
       <c r="M80" s="1">
         <v>44188</v>
@@ -6574,12 +6597,12 @@
         <v>62.58</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B81" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -6609,7 +6632,7 @@
         <v>29.555</v>
       </c>
       <c r="L81" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M81" s="1">
         <v>44257</v>
@@ -6624,18 +6647,18 @@
         <v>8.8339999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B82" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C82" t="s">
         <v>23</v>
       </c>
       <c r="D82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E82" s="1">
         <v>44911</v>
@@ -6659,7 +6682,7 @@
         <v>123.074</v>
       </c>
       <c r="L82" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N82">
         <v>2</v>
@@ -6671,12 +6694,12 @@
         <v>145.94399999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B83" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C83" t="s">
         <v>23</v>
@@ -6706,7 +6729,7 @@
         <v>72.212000000000003</v>
       </c>
       <c r="L83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M83" s="1">
         <v>44188</v>
@@ -6721,18 +6744,18 @@
         <v>55.034999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B84" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C84" t="s">
         <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E84" s="1">
         <v>44634</v>
@@ -6756,18 +6779,18 @@
         <v>67.834000000000003</v>
       </c>
       <c r="L84" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B85" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C85" t="s">
         <v>41</v>
@@ -6797,7 +6820,7 @@
         <v>34.637</v>
       </c>
       <c r="L85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M85" s="1">
         <v>44242</v>
@@ -6812,12 +6835,12 @@
         <v>6.5339999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B86" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C86" t="s">
         <v>41</v>
@@ -6862,12 +6885,12 @@
         <v>22.012</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B87" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C87" t="s">
         <v>31</v>
@@ -6912,12 +6935,12 @@
         <v>42.738</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B88" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C88" t="s">
         <v>41</v>
@@ -6947,7 +6970,7 @@
         <v>39.222000000000001</v>
       </c>
       <c r="L88" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M88" s="1">
         <v>44252</v>
@@ -6962,18 +6985,18 @@
         <v>20.007000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B89" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C89" t="s">
         <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E89" s="1">
         <v>44914</v>
@@ -6997,7 +7020,7 @@
         <v>81.760999999999996</v>
       </c>
       <c r="L89" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N89">
         <v>3</v>
@@ -7009,12 +7032,12 @@
         <v>107.556</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B90" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -7044,7 +7067,7 @@
         <v>25.08</v>
       </c>
       <c r="L90" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M90" s="1">
         <v>44260</v>
@@ -7059,12 +7082,12 @@
         <v>1.7050000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B91" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -7094,7 +7117,7 @@
         <v>21.663</v>
       </c>
       <c r="L91" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M91" s="1">
         <v>44288</v>
@@ -7109,12 +7132,12 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B92" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C92" t="s">
         <v>41</v>
@@ -7144,7 +7167,7 @@
         <v>48.326999999999998</v>
       </c>
       <c r="L92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M92" s="1">
         <v>44238</v>
@@ -7159,12 +7182,12 @@
         <v>9.6579999999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B93" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C93" t="s">
         <v>41</v>
@@ -7194,18 +7217,18 @@
         <v>2.0819999999999999</v>
       </c>
       <c r="L93" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N93">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B94" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C94" t="s">
         <v>41</v>
@@ -7235,7 +7258,7 @@
         <v>58.137999999999998</v>
       </c>
       <c r="L94" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M94" s="1">
         <v>44249</v>
@@ -7250,12 +7273,12 @@
         <v>46.317999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B95" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C95" t="s">
         <v>23</v>
@@ -7285,7 +7308,7 @@
         <v>62.954999999999998</v>
       </c>
       <c r="L95" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M95" s="1">
         <v>44188</v>
@@ -7300,12 +7323,12 @@
         <v>39.576999999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B96" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C96" t="s">
         <v>23</v>
@@ -7350,15 +7373,15 @@
         <v>69.727000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B97" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C97" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D97" t="s">
         <v>19</v>
@@ -7385,7 +7408,7 @@
         <v>68.926000000000002</v>
       </c>
       <c r="L97" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M97" s="1">
         <v>44212</v>
@@ -7400,15 +7423,15 @@
         <v>16.190000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B98" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C98" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D98" t="s">
         <v>19</v>
@@ -7435,7 +7458,7 @@
         <v>63.078000000000003</v>
       </c>
       <c r="L98" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M98" s="1">
         <v>44209</v>
@@ -7450,12 +7473,12 @@
         <v>24.518999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B99" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
@@ -7485,7 +7508,7 @@
         <v>69.665999999999997</v>
       </c>
       <c r="L99" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M99" s="1">
         <v>44236</v>
@@ -7500,12 +7523,12 @@
         <v>37.081000000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B100" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
@@ -7535,7 +7558,7 @@
         <v>19.751999999999999</v>
       </c>
       <c r="L100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M100" s="1">
         <v>44257</v>
@@ -7550,12 +7573,12 @@
         <v>0.68400000000000005</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B101" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C101" t="s">
         <v>23</v>
@@ -7600,18 +7623,18 @@
         <v>61.158999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B102" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C102" t="s">
         <v>23</v>
       </c>
       <c r="D102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E102" s="1">
         <v>44735</v>
@@ -7635,7 +7658,7 @@
         <v>78.918999999999997</v>
       </c>
       <c r="L102" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N102">
         <v>3</v>
@@ -7647,12 +7670,12 @@
         <v>62.715000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B103" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C103" t="s">
         <v>23</v>
@@ -7697,12 +7720,12 @@
         <v>18.321000000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B104" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C104" t="s">
         <v>23</v>
@@ -7732,7 +7755,7 @@
         <v>82.953000000000003</v>
       </c>
       <c r="L104" t="s">
-        <v>206</v>
+        <v>604</v>
       </c>
       <c r="M104" s="1">
         <v>44188</v>
@@ -7747,12 +7770,12 @@
         <v>75.162999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B105" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C105" t="s">
         <v>41</v>
@@ -7782,7 +7805,7 @@
         <v>25.068000000000001</v>
       </c>
       <c r="L105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M105" s="1">
         <v>44265</v>
@@ -7797,12 +7820,12 @@
         <v>1.534</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B106" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C106" t="s">
         <v>31</v>
@@ -7832,7 +7855,7 @@
         <v>81.433999999999997</v>
       </c>
       <c r="L106" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M106" s="1">
         <v>44244</v>
@@ -7847,18 +7870,18 @@
         <v>66.668999999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B107" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C107" t="s">
         <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E107" s="1">
         <v>44913</v>
@@ -7882,7 +7905,7 @@
         <v>75.911000000000001</v>
       </c>
       <c r="L107" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N107">
         <v>3</v>
@@ -7894,12 +7917,12 @@
         <v>68.286000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B108" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C108" t="s">
         <v>18</v>
@@ -7929,7 +7952,7 @@
         <v>44.676000000000002</v>
       </c>
       <c r="L108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M108" s="1">
         <v>44209</v>
@@ -7944,12 +7967,12 @@
         <v>6.6859999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B109" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C109" t="s">
         <v>23</v>
@@ -7979,7 +8002,7 @@
         <v>69.385000000000005</v>
       </c>
       <c r="L109" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M109" s="1">
         <v>44293</v>
@@ -7994,12 +8017,12 @@
         <v>35.478999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B110" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C110" t="s">
         <v>27</v>
@@ -8029,7 +8052,7 @@
         <v>20.145</v>
       </c>
       <c r="L110" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M110" s="1">
         <v>44260</v>
@@ -8044,12 +8067,12 @@
         <v>3.2669999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B111" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C111" t="s">
         <v>31</v>
@@ -8079,7 +8102,7 @@
         <v>61.856999999999999</v>
       </c>
       <c r="L111" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M111" s="1">
         <v>44342</v>
@@ -8094,12 +8117,12 @@
         <v>19.606000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B112" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C112" t="s">
         <v>23</v>
@@ -8144,12 +8167,12 @@
         <v>5.8710000000000004</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B113" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C113" t="s">
         <v>18</v>
@@ -8179,7 +8202,7 @@
         <v>78.290000000000006</v>
       </c>
       <c r="L113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M113" s="1">
         <v>44193</v>
@@ -8194,12 +8217,12 @@
         <v>34.119999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B114" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C114" t="s">
         <v>23</v>
@@ -8229,7 +8252,7 @@
         <v>20.100999999999999</v>
       </c>
       <c r="L114" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M114" s="1">
         <v>44286</v>
@@ -8244,12 +8267,12 @@
         <v>3.7559999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B115" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C115" t="s">
         <v>31</v>
@@ -8279,7 +8302,7 @@
         <v>74.536000000000001</v>
       </c>
       <c r="L115" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M115" s="1">
         <v>44160</v>
@@ -8294,12 +8317,12 @@
         <v>27.859000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B116" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C116" t="s">
         <v>23</v>
@@ -8344,12 +8367,12 @@
         <v>28.905999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B117" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C117" t="s">
         <v>18</v>
@@ -8379,7 +8402,7 @@
         <v>35.371000000000002</v>
       </c>
       <c r="L117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M117" s="1">
         <v>44241</v>
@@ -8394,12 +8417,12 @@
         <v>9.673</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B118" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -8429,7 +8452,7 @@
         <v>43.223999999999997</v>
       </c>
       <c r="L118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M118" s="1">
         <v>44265</v>
@@ -8444,12 +8467,12 @@
         <v>6.4359999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B119" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -8494,12 +8517,12 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B120" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C120" t="s">
         <v>18</v>
@@ -8529,7 +8552,7 @@
         <v>17.899000000000001</v>
       </c>
       <c r="L120" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M120" s="1">
         <v>44297</v>
@@ -8544,15 +8567,15 @@
         <v>2.5830000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B121" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C121" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D121" t="s">
         <v>19</v>
@@ -8594,12 +8617,12 @@
         <v>47.255000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B122" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C122" t="s">
         <v>23</v>
@@ -8629,7 +8652,7 @@
         <v>68.22</v>
       </c>
       <c r="L122" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M122" s="1">
         <v>44188</v>
@@ -8644,12 +8667,12 @@
         <v>32.234000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B123" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C123" t="s">
         <v>23</v>
@@ -8679,7 +8702,7 @@
         <v>73.881</v>
       </c>
       <c r="L123" t="s">
-        <v>206</v>
+        <v>604</v>
       </c>
       <c r="M123" s="1">
         <v>44195</v>
@@ -8694,12 +8717,12 @@
         <v>58.764000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B124" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -8729,7 +8752,7 @@
         <v>7.1539999999999999</v>
       </c>
       <c r="L124" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M124" s="1">
         <v>44326</v>
@@ -8744,12 +8767,12 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B125" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -8779,7 +8802,7 @@
         <v>19.263999999999999</v>
       </c>
       <c r="L125" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M125" s="1">
         <v>44266</v>
@@ -8794,12 +8817,12 @@
         <v>9.4480000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B126" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C126" t="s">
         <v>31</v>
@@ -8829,7 +8852,7 @@
         <v>85.058000000000007</v>
       </c>
       <c r="L126" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M126" s="1">
         <v>44251</v>
@@ -8844,15 +8867,15 @@
         <v>50.281999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B127" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C127" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D127" t="s">
         <v>19</v>
@@ -8879,7 +8902,7 @@
         <v>71.239999999999995</v>
       </c>
       <c r="L127" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M127" s="1">
         <v>44228</v>
@@ -8894,12 +8917,12 @@
         <v>30.928999999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B128" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -8938,12 +8961,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B129" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C129" t="s">
         <v>23</v>
@@ -8973,7 +8996,7 @@
         <v>86.453000000000003</v>
       </c>
       <c r="L129" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M129" s="1">
         <v>44188</v>
@@ -8988,12 +9011,12 @@
         <v>68.480999999999995</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B130" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C130" t="s">
         <v>31</v>
@@ -9038,12 +9061,12 @@
         <v>36.411999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B131" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C131" t="s">
         <v>41</v>
@@ -9073,7 +9096,7 @@
         <v>38.652000000000001</v>
       </c>
       <c r="L131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N131">
         <v>1</v>
@@ -9085,12 +9108,12 @@
         <v>24.608000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B132" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C132" t="s">
         <v>27</v>
@@ -9120,7 +9143,7 @@
         <v>32.945999999999998</v>
       </c>
       <c r="L132" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M132" s="1">
         <v>44281</v>
@@ -9135,12 +9158,12 @@
         <v>8.1509999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B133" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
@@ -9170,7 +9193,7 @@
         <v>85.561000000000007</v>
       </c>
       <c r="L133" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M133" s="1">
         <v>44222</v>
@@ -9185,12 +9208,12 @@
         <v>50.277000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B134" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C134" t="s">
         <v>41</v>
@@ -9220,7 +9243,7 @@
         <v>63.482999999999997</v>
       </c>
       <c r="L134" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M134" s="1">
         <v>44189</v>
@@ -9235,12 +9258,12 @@
         <v>44.23</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B135" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C135" t="s">
         <v>31</v>
@@ -9270,7 +9293,7 @@
         <v>57.530999999999999</v>
       </c>
       <c r="L135" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M135" s="1">
         <v>44209</v>
@@ -9285,12 +9308,12 @@
         <v>26.548999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B136" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C136" t="s">
         <v>23</v>
@@ -9320,7 +9343,7 @@
         <v>63.442</v>
       </c>
       <c r="L136" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M136" s="1">
         <v>44377</v>
@@ -9335,12 +9358,12 @@
         <v>45.216999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B137" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C137" t="s">
         <v>31</v>
@@ -9370,7 +9393,7 @@
         <v>66.644000000000005</v>
       </c>
       <c r="L137" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M137" s="1">
         <v>44250</v>
@@ -9385,12 +9408,12 @@
         <v>32.246000000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B138" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C138" t="s">
         <v>23</v>
@@ -9420,7 +9443,7 @@
         <v>40.914000000000001</v>
       </c>
       <c r="L138" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M138" s="1">
         <v>44251</v>
@@ -9435,12 +9458,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B139" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C139" t="s">
         <v>41</v>
@@ -9470,7 +9493,7 @@
         <v>39.048000000000002</v>
       </c>
       <c r="L139" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M139" s="1">
         <v>44235</v>
@@ -9485,12 +9508,12 @@
         <v>11.262</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B140" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C140" t="s">
         <v>18</v>
@@ -9520,7 +9543,7 @@
         <v>63.71</v>
       </c>
       <c r="L140" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M140" s="1">
         <v>44224</v>
@@ -9535,12 +9558,12 @@
         <v>18.759</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B141" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -9570,7 +9593,7 @@
         <v>59.024999999999999</v>
       </c>
       <c r="L141" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M141" s="1">
         <v>44263</v>
@@ -9585,15 +9608,15 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B142" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C142" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D142" t="s">
         <v>19</v>
@@ -9620,7 +9643,7 @@
         <v>50.625999999999998</v>
       </c>
       <c r="L142" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M142" s="1">
         <v>44223</v>
@@ -9635,12 +9658,12 @@
         <v>4.0940000000000003</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B143" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -9670,7 +9693,7 @@
         <v>20.704000000000001</v>
       </c>
       <c r="L143" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M143" s="1">
         <v>44274</v>
@@ -9685,12 +9708,12 @@
         <v>4.0229999999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B144" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C144" t="s">
         <v>31</v>
@@ -9720,7 +9743,7 @@
         <v>79.241</v>
       </c>
       <c r="L144" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M144" s="1">
         <v>44295</v>
@@ -9735,15 +9758,15 @@
         <v>46.750999999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B145" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C145" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D145" t="s">
         <v>19</v>
@@ -9770,7 +9793,7 @@
         <v>82.566000000000003</v>
       </c>
       <c r="L145" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M145" s="1">
         <v>44223</v>
@@ -9785,12 +9808,12 @@
         <v>30.38</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B146" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C146" t="s">
         <v>23</v>
@@ -9820,7 +9843,7 @@
         <v>68.688999999999993</v>
       </c>
       <c r="L146" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M146" s="1">
         <v>44202</v>
@@ -9835,12 +9858,12 @@
         <v>54.097999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B147" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C147" t="s">
         <v>31</v>
@@ -9885,12 +9908,12 @@
         <v>32.960999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B148" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C148" t="s">
         <v>31</v>
@@ -9920,7 +9943,7 @@
         <v>84.866</v>
       </c>
       <c r="L148" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M148" s="1">
         <v>44246</v>
@@ -9935,12 +9958,12 @@
         <v>56.326000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B149" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C149" t="s">
         <v>41</v>
@@ -9970,7 +9993,7 @@
         <v>89.293999999999997</v>
       </c>
       <c r="L149" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M149" s="1">
         <v>44258</v>
@@ -9979,12 +10002,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B150" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C150" t="s">
         <v>27</v>
@@ -10014,7 +10037,7 @@
         <v>21.928000000000001</v>
       </c>
       <c r="L150" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M150" s="1">
         <v>44284</v>
@@ -10023,12 +10046,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B151" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
@@ -10073,12 +10096,12 @@
         <v>4.032</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B152" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C152" t="s">
         <v>31</v>
@@ -10108,7 +10131,7 @@
         <v>100.989</v>
       </c>
       <c r="L152" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M152" s="1">
         <v>44355</v>
@@ -10123,12 +10146,12 @@
         <v>75.649000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B153" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C153" t="s">
         <v>23</v>
@@ -10158,7 +10181,7 @@
         <v>40.363</v>
       </c>
       <c r="L153" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M153" s="1">
         <v>44244</v>
@@ -10173,12 +10196,12 @@
         <v>7.7809999999999997</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B154" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C154" t="s">
         <v>31</v>
@@ -10223,12 +10246,12 @@
         <v>42.106000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B155" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C155" t="s">
         <v>23</v>
@@ -10258,7 +10281,7 @@
         <v>75.641999999999996</v>
       </c>
       <c r="L155" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M155" s="1">
         <v>44188</v>
@@ -10273,12 +10296,12 @@
         <v>56.08</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B156" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C156" t="s">
         <v>18</v>
@@ -10308,7 +10331,7 @@
         <v>34.832999999999998</v>
       </c>
       <c r="L156" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M156" s="1">
         <v>44229</v>
@@ -10323,12 +10346,12 @@
         <v>6.6050000000000004</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B157" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C157" t="s">
         <v>18</v>
@@ -10373,12 +10396,12 @@
         <v>15.272</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B158" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C158" t="s">
         <v>18</v>
@@ -10423,12 +10446,12 @@
         <v>22.154</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B159" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C159" t="s">
         <v>31</v>
@@ -10473,12 +10496,12 @@
         <v>71.114000000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B160" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C160" t="s">
         <v>41</v>
@@ -10523,12 +10546,12 @@
         <v>40.606999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B161" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C161" t="s">
         <v>31</v>
@@ -10558,7 +10581,7 @@
         <v>3.46</v>
       </c>
       <c r="L161" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M161" s="1">
         <v>44285</v>
@@ -10573,12 +10596,12 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B162" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C162" t="s">
         <v>41</v>
@@ -10608,7 +10631,7 @@
         <v>49.494</v>
       </c>
       <c r="L162" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M162" s="1">
         <v>44249</v>
@@ -10623,12 +10646,12 @@
         <v>22.998999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B163" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C163" t="s">
         <v>41</v>
@@ -10658,7 +10681,7 @@
         <v>85.972999999999999</v>
       </c>
       <c r="L163" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M163" s="1">
         <v>44236</v>
@@ -10673,12 +10696,12 @@
         <v>65.819000000000003</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B164" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C164" t="s">
         <v>31</v>
@@ -10708,7 +10731,7 @@
         <v>67.417000000000002</v>
       </c>
       <c r="L164" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M164" s="1">
         <v>44256</v>
@@ -10723,12 +10746,12 @@
         <v>19.376000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B165" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C165" t="s">
         <v>31</v>
@@ -10758,7 +10781,7 @@
         <v>74</v>
       </c>
       <c r="L165" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M165" s="1">
         <v>44333</v>
@@ -10773,12 +10796,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B166" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C166" t="s">
         <v>23</v>
@@ -10823,12 +10846,12 @@
         <v>32.871000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B167" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C167" t="s">
         <v>23</v>
@@ -10858,7 +10881,7 @@
         <v>86.296000000000006</v>
       </c>
       <c r="L167" t="s">
-        <v>451</v>
+        <v>601</v>
       </c>
       <c r="M167" s="1">
         <v>44188</v>
@@ -10873,12 +10896,12 @@
         <v>68.156000000000006</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B168" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C168" t="s">
         <v>41</v>
@@ -10908,7 +10931,7 @@
         <v>96.739000000000004</v>
       </c>
       <c r="L168" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N168">
         <v>4</v>
@@ -10920,12 +10943,12 @@
         <v>61.362000000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B169" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C169" t="s">
         <v>18</v>
@@ -10955,7 +10978,7 @@
         <v>98.927999999999997</v>
       </c>
       <c r="L169" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N169">
         <v>10</v>
@@ -10967,12 +10990,12 @@
         <v>65.984999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B170" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C170" t="s">
         <v>31</v>
@@ -11017,12 +11040,12 @@
         <v>65.628</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B171" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C171" t="s">
         <v>23</v>
@@ -11052,7 +11075,7 @@
         <v>26.622</v>
       </c>
       <c r="L171" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M171" s="1">
         <v>44258</v>
@@ -11067,12 +11090,12 @@
         <v>9.65</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B172" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C172" t="s">
         <v>23</v>
@@ -11102,7 +11125,7 @@
         <v>42.110999999999997</v>
       </c>
       <c r="L172" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M172" s="1">
         <v>44223</v>
@@ -11117,18 +11140,18 @@
         <v>9.1340000000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B173" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C173" t="s">
         <v>23</v>
       </c>
       <c r="D173" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E173" s="1">
         <v>44909</v>
@@ -11152,18 +11175,18 @@
         <v>53.604999999999997</v>
       </c>
       <c r="L173" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="N173">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B174" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C174" t="s">
         <v>27</v>
@@ -11193,7 +11216,7 @@
         <v>71.608999999999995</v>
       </c>
       <c r="L174" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M174" s="1">
         <v>44260</v>
@@ -11208,12 +11231,12 @@
         <v>45.39</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B175" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C175" t="s">
         <v>41</v>
@@ -11242,6 +11265,9 @@
       <c r="K175">
         <v>85.721999999999994</v>
       </c>
+      <c r="L175" t="s">
+        <v>605</v>
+      </c>
       <c r="O175">
         <v>1127</v>
       </c>
@@ -11249,18 +11275,18 @@
         <v>58.302999999999997</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B176" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C176" t="s">
         <v>27</v>
       </c>
       <c r="D176" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E176" s="1">
         <v>44321</v>
@@ -11284,18 +11310,18 @@
         <v>58.161999999999999</v>
       </c>
       <c r="L176" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N176">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B177" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C177" t="s">
         <v>41</v>
@@ -11325,7 +11351,7 @@
         <v>50.76</v>
       </c>
       <c r="L177" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M177" s="1">
         <v>44249</v>
@@ -11340,12 +11366,12 @@
         <v>6.5140000000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B178" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C178" t="s">
         <v>41</v>
@@ -11375,7 +11401,7 @@
         <v>29.936</v>
       </c>
       <c r="L178" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M178" s="1">
         <v>44244</v>
@@ -11390,12 +11416,12 @@
         <v>4.2839999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B179" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C179" t="s">
         <v>41</v>
@@ -11425,7 +11451,7 @@
         <v>28.344000000000001</v>
       </c>
       <c r="L179" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M179" s="1">
         <v>44228</v>
@@ -11440,12 +11466,12 @@
         <v>3.7890000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B180" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C180" t="s">
         <v>31</v>
@@ -11490,12 +11516,12 @@
         <v>39.845999999999997</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B181" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C181" t="s">
         <v>23</v>
@@ -11525,7 +11551,7 @@
         <v>68.594999999999999</v>
       </c>
       <c r="L181" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M181" s="1">
         <v>44251</v>
@@ -11540,12 +11566,12 @@
         <v>56.158000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B182" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C182" t="s">
         <v>27</v>
@@ -11575,7 +11601,7 @@
         <v>47.281999999999996</v>
       </c>
       <c r="L182" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M182" s="1">
         <v>44270</v>
@@ -11590,12 +11616,12 @@
         <v>14.920999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B183" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C183" t="s">
         <v>18</v>
@@ -11625,7 +11651,7 @@
         <v>72.820999999999998</v>
       </c>
       <c r="L183" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M183" s="1">
         <v>44202</v>
@@ -11640,12 +11666,12 @@
         <v>45.514000000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B184" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C184" t="s">
         <v>27</v>
@@ -11675,7 +11701,7 @@
         <v>8.1010000000000009</v>
       </c>
       <c r="L184" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M184" s="1">
         <v>44250</v>
@@ -11690,12 +11716,12 @@
         <v>3.6829999999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B185" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C185" t="s">
         <v>23</v>
@@ -11725,7 +11751,7 @@
         <v>47.948999999999998</v>
       </c>
       <c r="L185" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M185" s="1">
         <v>44188</v>
@@ -11740,12 +11766,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B186" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -11775,7 +11801,7 @@
         <v>83.034000000000006</v>
       </c>
       <c r="L186" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M186" s="1">
         <v>44206</v>
@@ -11790,12 +11816,12 @@
         <v>45.456000000000003</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B187" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
@@ -11825,7 +11851,7 @@
         <v>43.19</v>
       </c>
       <c r="L187" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M187" s="1">
         <v>44270</v>
@@ -11840,12 +11866,12 @@
         <v>4.343</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B188" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C188" t="s">
         <v>31</v>
@@ -11875,7 +11901,7 @@
         <v>87.403999999999996</v>
       </c>
       <c r="L188" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M188" s="1">
         <v>44195</v>
@@ -11890,12 +11916,12 @@
         <v>77.335999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B189" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C189" t="s">
         <v>41</v>
@@ -11924,6 +11950,9 @@
       <c r="K189">
         <v>53.710999999999999</v>
       </c>
+      <c r="L189" t="s">
+        <v>605</v>
+      </c>
       <c r="O189">
         <v>780</v>
       </c>
@@ -11931,12 +11960,12 @@
         <v>24.849</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B190" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C190" t="s">
         <v>41</v>
@@ -11981,12 +12010,12 @@
         <v>21.149000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B191" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C191" t="s">
         <v>23</v>
@@ -12016,7 +12045,7 @@
         <v>51.13</v>
       </c>
       <c r="L191" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M191" s="1">
         <v>44188</v>
@@ -12031,12 +12060,12 @@
         <v>30.878</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B192" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C192" t="s">
         <v>23</v>
@@ -12066,7 +12095,7 @@
         <v>57.271000000000001</v>
       </c>
       <c r="L192" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M192" s="1">
         <v>44188</v>
@@ -12081,12 +12110,12 @@
         <v>31.271000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B193" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C193" t="s">
         <v>31</v>
@@ -12116,7 +12145,7 @@
         <v>31.681999999999999</v>
       </c>
       <c r="L193" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M193" s="1">
         <v>44278</v>
@@ -12131,12 +12160,12 @@
         <v>2.5430000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B194" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C194" t="s">
         <v>18</v>
@@ -12175,12 +12204,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B195" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C195" t="s">
         <v>27</v>
@@ -12225,12 +12254,12 @@
         <v>6.5289999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B196" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C196" t="s">
         <v>27</v>
@@ -12260,7 +12289,7 @@
         <v>19.745000000000001</v>
       </c>
       <c r="L196" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M196" s="1">
         <v>44292</v>
@@ -12269,12 +12298,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B197" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C197" t="s">
         <v>23</v>
@@ -12304,7 +12333,7 @@
         <v>79.191000000000003</v>
       </c>
       <c r="L197" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M197" s="1">
         <v>44195</v>
@@ -12319,15 +12348,15 @@
         <v>55.643999999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B198" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C198" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D198" t="s">
         <v>19</v>
@@ -12354,7 +12383,7 @@
         <v>68.896000000000001</v>
       </c>
       <c r="L198" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M198" s="1">
         <v>44225</v>
@@ -12369,12 +12398,12 @@
         <v>38.387</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B199" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C199" t="s">
         <v>18</v>
@@ -12419,12 +12448,12 @@
         <v>2.1040000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B200" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C200" t="s">
         <v>41</v>
@@ -12454,7 +12483,7 @@
         <v>40.549999999999997</v>
       </c>
       <c r="L200" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M200" s="1">
         <v>44250</v>
@@ -12469,12 +12498,12 @@
         <v>8.3339999999999996</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B201" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C201" t="s">
         <v>23</v>
@@ -12504,7 +12533,7 @@
         <v>71.373000000000005</v>
       </c>
       <c r="L201" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M201" s="1">
         <v>44188</v>
@@ -12519,12 +12548,12 @@
         <v>53.753</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B202" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C202" t="s">
         <v>23</v>
@@ -12554,7 +12583,7 @@
         <v>66.477000000000004</v>
       </c>
       <c r="L202" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="M202" s="1">
         <v>44188</v>
@@ -12569,12 +12598,12 @@
         <v>56.606000000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B203" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C203" t="s">
         <v>18</v>
@@ -12619,12 +12648,12 @@
         <v>0.434</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B204" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C204" t="s">
         <v>23</v>
@@ -12654,7 +12683,7 @@
         <v>54.212000000000003</v>
       </c>
       <c r="L204" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="M204" s="1">
         <v>44279</v>
@@ -12669,15 +12698,15 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B205" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C205" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D205" t="s">
         <v>19</v>
@@ -12704,7 +12733,7 @@
         <v>77.254999999999995</v>
       </c>
       <c r="L205" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M205" s="1">
         <v>44255</v>
@@ -12719,12 +12748,12 @@
         <v>38.218000000000004</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B206" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C206" t="s">
         <v>23</v>
@@ -12763,15 +12792,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B207" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C207" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D207" t="s">
         <v>19</v>
@@ -12798,7 +12827,7 @@
         <v>59.802</v>
       </c>
       <c r="L207" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="M207" s="1">
         <v>44293</v>
@@ -12813,12 +12842,12 @@
         <v>23.603999999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B208" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C208" t="s">
         <v>27</v>
@@ -12863,12 +12892,12 @@
         <v>5.1680000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B209" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C209" t="s">
         <v>31</v>
@@ -12898,7 +12927,7 @@
         <v>163.185</v>
       </c>
       <c r="L209" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M209" s="1">
         <v>44397</v>
@@ -12913,12 +12942,12 @@
         <v>71.703999999999994</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B210" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C210" t="s">
         <v>31</v>
@@ -12963,12 +12992,12 @@
         <v>36.244</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B211" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C211" t="s">
         <v>41</v>
@@ -12998,7 +13027,7 @@
         <v>51.311999999999998</v>
       </c>
       <c r="L211" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M211" s="1">
         <v>44244</v>
@@ -13013,12 +13042,12 @@
         <v>12.098000000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B212" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C212" t="s">
         <v>18</v>
@@ -13048,7 +13077,7 @@
         <v>54.088999999999999</v>
       </c>
       <c r="L212" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M212" s="1">
         <v>44268</v>
@@ -13063,12 +13092,12 @@
         <v>10.611000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B213" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C213" t="s">
         <v>23</v>
@@ -13098,7 +13127,7 @@
         <v>60.927999999999997</v>
       </c>
       <c r="L213" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="N213">
         <v>3</v>
@@ -13110,12 +13139,12 @@
         <v>33.540999999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B214" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C214" t="s">
         <v>23</v>
@@ -13145,7 +13174,7 @@
         <v>61.164999999999999</v>
       </c>
       <c r="L214" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="M214" s="1">
         <v>44251</v>
@@ -13160,12 +13189,12 @@
         <v>55.378999999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B215" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C215" t="s">
         <v>41</v>
@@ -13195,7 +13224,7 @@
         <v>78.227000000000004</v>
       </c>
       <c r="L215" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M215" s="1">
         <v>44207</v>
@@ -13210,12 +13239,12 @@
         <v>18.782</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B216" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C216" t="s">
         <v>31</v>
@@ -13245,7 +13274,7 @@
         <v>79.054000000000002</v>
       </c>
       <c r="L216" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M216" s="1">
         <v>44299</v>
@@ -13260,12 +13289,12 @@
         <v>46.878999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B217" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C217" t="s">
         <v>27</v>
@@ -13295,7 +13324,7 @@
         <v>28.338000000000001</v>
       </c>
       <c r="L217" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="M217" s="1">
         <v>44265</v>
@@ -13310,12 +13339,12 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B218" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C218" t="s">
         <v>23</v>
@@ -13345,7 +13374,7 @@
         <v>34.65</v>
       </c>
       <c r="L218" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="M218" s="1">
         <v>44251</v>
@@ -13360,12 +13389,12 @@
         <v>1.6950000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B219" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C219" t="s">
         <v>18</v>
@@ -13407,12 +13436,12 @@
         <v>51.956000000000003</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B220" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
@@ -13442,7 +13471,7 @@
         <v>49.002000000000002</v>
       </c>
       <c r="L220" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="M220" s="1">
         <v>44405</v>
@@ -13451,12 +13480,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B221" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C221" t="s">
         <v>41</v>
@@ -13486,7 +13515,7 @@
         <v>68.296999999999997</v>
       </c>
       <c r="L221" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M221" s="1">
         <v>44179</v>
@@ -13501,12 +13530,12 @@
         <v>34.381999999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B222" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C222" t="s">
         <v>41</v>
@@ -13536,7 +13565,7 @@
         <v>83.334000000000003</v>
       </c>
       <c r="L222" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="M222" s="1">
         <v>44254</v>
@@ -13551,12 +13580,12 @@
         <v>59.459000000000003</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B223" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C223" t="s">
         <v>23</v>
@@ -13586,7 +13615,7 @@
         <v>52.905999999999999</v>
       </c>
       <c r="L223" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="M223" s="1">
         <v>44314</v>
@@ -13601,12 +13630,12 @@
         <v>43.984000000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B224" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C224" t="s">
         <v>31</v>
@@ -13636,7 +13665,7 @@
         <v>42.749000000000002</v>
       </c>
       <c r="L224" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="M224" s="1">
         <v>44349</v>
@@ -13651,12 +13680,12 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B225" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C225" t="s">
         <v>41</v>
@@ -13686,7 +13715,7 @@
         <v>50.244</v>
       </c>
       <c r="L225" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="M225" s="1">
         <v>44249</v>
@@ -13701,12 +13730,12 @@
         <v>2.2909999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B226" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C226" t="s">
         <v>31</v>
@@ -13736,7 +13765,7 @@
         <v>87.891999999999996</v>
       </c>
       <c r="L226" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="M226" s="1">
         <v>44263</v>
@@ -13751,12 +13780,12 @@
         <v>58.997</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B227" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C227" t="s">
         <v>31</v>
@@ -13786,7 +13815,7 @@
         <v>62.146999999999998</v>
       </c>
       <c r="L227" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="M227" s="1">
         <v>44274</v>
@@ -13801,12 +13830,12 @@
         <v>28.463000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B228" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C228" t="s">
         <v>18</v>
@@ -13851,12 +13880,12 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B229" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C229" t="s">
         <v>27</v>
@@ -13886,7 +13915,7 @@
         <v>46.402999999999999</v>
       </c>
       <c r="L229" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M229" s="1">
         <v>44300</v>
@@ -13901,12 +13930,12 @@
         <v>5.5860000000000003</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B230" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C230" t="s">
         <v>27</v>
@@ -13936,7 +13965,7 @@
         <v>33.154000000000003</v>
       </c>
       <c r="L230" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="M230" s="1">
         <v>44245</v>
@@ -13953,5 +13982,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>